--- a/medicine/Pharmacie/Oxétacaïne/Oxétacaïne.xlsx
+++ b/medicine/Pharmacie/Oxétacaïne/Oxétacaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ox%C3%A9taca%C3%AFne</t>
+          <t>Oxétacaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxétacaïne (DCI) est un puissant anesthésique local de la famille des amino-amides, également connu sous le nom d'oxéthazaïne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ox%C3%A9taca%C3%AFne</t>
+          <t>Oxétacaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être administré oralement (généralement associé à un antiacide) pour soulager la douleur due à un ulcère gastrique ou une œsophagite, mais aussi de manière locale pour aider à supporter des hémorroïdes.
 Des préparations orales contenant de l'oxétacaïne sont disponibles dans plusieurs pays dont l'Inde, l'Afrique du Sud, le Japon et le Brésil. On n'en trouve pas aux États-Unis et il a été retiré du marché du Royaume-Uni en 2002.
-En France, il existe une suspension buvable pour soulager les affections œsogastriques, fabriqué par Alkopharma[2].
+En France, il existe une suspension buvable pour soulager les affections œsogastriques, fabriqué par Alkopharma.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ox%C3%A9taca%C3%AFne</t>
+          <t>Oxétacaïne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Particularité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence de la plupart des anesthésiques locaux, l'oxétacaïne est actif même dans des conditions fortement acides.
 </t>
